--- a/ドキュメント/基本設計.xlsx
+++ b/ドキュメント/基本設計.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\adobe\Creative Cloud Files\source\repos\NovelReader\ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\開発\趣味\NovelReader\ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C8E250-8ED3-48F8-A789-D5F5755A3D38}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24480" windowHeight="15990" activeTab="1" xr2:uid="{8972AB60-71D6-4B75-B4EE-811281405A2E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24480" windowHeight="15990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移" sheetId="1" r:id="rId1"/>
@@ -392,7 +391,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -751,6 +750,48 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -775,32 +816,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -810,30 +833,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2451,7 +2450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF4D15-801C-4C14-8E0F-88A0217EBAE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AC24:AC25"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
@@ -2476,17 +2475,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
   <headerFooter differentFirst="1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF474781-A21E-4E7A-AAA7-5B9E2713F657}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AP64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A51" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -2518,13 +2517,13 @@
       <c r="C29" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="39"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="31"/>
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2541,12 +2540,12 @@
         <v>7</v>
       </c>
       <c r="P29" s="10"/>
-      <c r="Q29" s="47" t="s">
+      <c r="Q29" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="39"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="31"/>
       <c r="U29" s="5" t="s">
         <v>4</v>
       </c>
@@ -2576,31 +2575,31 @@
       <c r="C30" s="11">
         <v>1</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="35" t="s">
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="J30" s="36"/>
-      <c r="K30" s="37"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="35"/>
       <c r="L30" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="M30" s="40"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="48" t="s">
+      <c r="M30" s="37"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R30" s="49"/>
-      <c r="S30" s="49"/>
-      <c r="T30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="51"/>
       <c r="U30" s="17" t="s">
         <v>19</v>
       </c>
@@ -2630,31 +2629,31 @@
       <c r="C31" s="11">
         <v>2</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="27" t="s">
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="J31" s="28"/>
-      <c r="K31" s="29"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="43"/>
       <c r="L31" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M31" s="31"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="35" t="s">
+      <c r="M31" s="45"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="37"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="35"/>
       <c r="U31" s="15" t="s">
         <v>20</v>
       </c>
@@ -2684,31 +2683,31 @@
       <c r="C32" s="11">
         <v>3</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="27" t="s">
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J32" s="28"/>
-      <c r="K32" s="29"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="43"/>
       <c r="L32" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M32" s="31"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="27" t="s">
+      <c r="M32" s="45"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="29"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="43"/>
       <c r="U32" s="15"/>
       <c r="V32" s="15"/>
       <c r="W32" s="15"/>
@@ -2736,31 +2735,31 @@
       <c r="C33" s="11">
         <v>4</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="27" t="s">
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J33" s="28"/>
-      <c r="K33" s="29"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="43"/>
       <c r="L33" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M33" s="31"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="27" t="s">
+      <c r="M33" s="45"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="29"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="42"/>
+      <c r="T33" s="43"/>
       <c r="U33" s="15"/>
       <c r="V33" s="15"/>
       <c r="W33" s="15"/>
@@ -2788,23 +2787,23 @@
       <c r="C34" s="11">
         <v>5</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="29"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="43"/>
       <c r="L34" s="14"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="29"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="43"/>
       <c r="U34" s="15"/>
       <c r="V34" s="15"/>
       <c r="W34" s="15"/>
@@ -2832,23 +2831,23 @@
       <c r="C35" s="11">
         <v>6</v>
       </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="29"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="43"/>
       <c r="L35" s="14"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="29"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="42"/>
+      <c r="T35" s="43"/>
       <c r="U35" s="15"/>
       <c r="V35" s="15"/>
       <c r="W35" s="15"/>
@@ -2876,23 +2875,23 @@
       <c r="C36" s="11">
         <v>7</v>
       </c>
-      <c r="D36" s="44"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="29"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="43"/>
       <c r="L36" s="14"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="29"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="43"/>
       <c r="U36" s="15"/>
       <c r="V36" s="15"/>
       <c r="W36" s="15"/>
@@ -2925,13 +2924,13 @@
       <c r="C39" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="D39" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="39"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="31"/>
       <c r="I39" s="5" t="s">
         <v>5</v>
       </c>
@@ -2950,12 +2949,12 @@
         <v>7</v>
       </c>
       <c r="R39" s="10"/>
-      <c r="S39" s="47" t="s">
+      <c r="S39" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="T39" s="38"/>
-      <c r="U39" s="38"/>
-      <c r="V39" s="39"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="30"/>
+      <c r="V39" s="31"/>
       <c r="W39" s="5" t="s">
         <v>4</v>
       </c>
@@ -2983,33 +2982,33 @@
       <c r="C40" s="25">
         <v>1</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="51" t="s">
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
       <c r="N40" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="O40" s="40"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="43"/>
-      <c r="S40" s="35" t="s">
+      <c r="O40" s="37"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="40"/>
+      <c r="S40" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="T40" s="36"/>
-      <c r="U40" s="36"/>
-      <c r="V40" s="37"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="34"/>
+      <c r="V40" s="35"/>
       <c r="W40" s="17"/>
       <c r="X40" s="17"/>
       <c r="Y40" s="17"/>
@@ -3035,33 +3034,33 @@
       <c r="C41" s="11">
         <v>2</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="30" t="s">
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
       <c r="N41" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="O41" s="31"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="34"/>
-      <c r="S41" s="35" t="s">
+      <c r="O41" s="45"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="T41" s="36"/>
-      <c r="U41" s="36"/>
-      <c r="V41" s="37"/>
+      <c r="T41" s="34"/>
+      <c r="U41" s="34"/>
+      <c r="V41" s="35"/>
       <c r="W41" s="15"/>
       <c r="X41" s="15"/>
       <c r="Y41" s="15"/>
@@ -3087,25 +3086,25 @@
       <c r="C42" s="11">
         <v>3</v>
       </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
       <c r="N42" s="13"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="33"/>
-      <c r="R42" s="34"/>
-      <c r="S42" s="35"/>
-      <c r="T42" s="36"/>
-      <c r="U42" s="36"/>
-      <c r="V42" s="37"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="47"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="35"/>
       <c r="W42" s="15"/>
       <c r="X42" s="15"/>
       <c r="Y42" s="15"/>
@@ -3129,23 +3128,23 @@
     </row>
     <row r="43" spans="2:42" x14ac:dyDescent="0.4">
       <c r="C43" s="21"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
       <c r="L43" s="22"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="54"/>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="52"/>
-      <c r="R43" s="52"/>
-      <c r="S43" s="52"/>
-      <c r="T43" s="52"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
       <c r="U43" s="24"/>
       <c r="V43" s="24"/>
       <c r="W43" s="24"/>
@@ -3178,13 +3177,13 @@
       <c r="C45" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D45" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="39"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="31"/>
       <c r="I45" s="5" t="s">
         <v>5</v>
       </c>
@@ -3203,12 +3202,12 @@
         <v>7</v>
       </c>
       <c r="R45" s="10"/>
-      <c r="S45" s="47" t="s">
+      <c r="S45" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="T45" s="38"/>
-      <c r="U45" s="38"/>
-      <c r="V45" s="39"/>
+      <c r="T45" s="30"/>
+      <c r="U45" s="30"/>
+      <c r="V45" s="31"/>
       <c r="W45" s="5" t="s">
         <v>4</v>
       </c>
@@ -3236,33 +3235,33 @@
       <c r="C46" s="25">
         <v>1</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="51" t="s">
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="51"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
       <c r="N46" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="O46" s="40"/>
-      <c r="P46" s="41"/>
-      <c r="Q46" s="42"/>
-      <c r="R46" s="43"/>
-      <c r="S46" s="35" t="s">
+      <c r="O46" s="37"/>
+      <c r="P46" s="38"/>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="40"/>
+      <c r="S46" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="T46" s="36"/>
-      <c r="U46" s="36"/>
-      <c r="V46" s="37"/>
+      <c r="T46" s="34"/>
+      <c r="U46" s="34"/>
+      <c r="V46" s="35"/>
       <c r="W46" s="17"/>
       <c r="X46" s="17"/>
       <c r="Y46" s="17"/>
@@ -3288,33 +3287,33 @@
       <c r="C47" s="11">
         <v>2</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="30" t="s">
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
       <c r="N47" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="O47" s="31"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="34"/>
-      <c r="S47" s="35" t="s">
+      <c r="O47" s="45"/>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="47"/>
+      <c r="R47" s="48"/>
+      <c r="S47" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="T47" s="36"/>
-      <c r="U47" s="36"/>
-      <c r="V47" s="37"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="34"/>
+      <c r="V47" s="35"/>
       <c r="W47" s="15"/>
       <c r="X47" s="15"/>
       <c r="Y47" s="15"/>
@@ -3340,25 +3339,25 @@
       <c r="C48" s="11">
         <v>3</v>
       </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
       <c r="N48" s="13"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="32"/>
-      <c r="Q48" s="33"/>
-      <c r="R48" s="34"/>
-      <c r="S48" s="35"/>
-      <c r="T48" s="36"/>
-      <c r="U48" s="36"/>
-      <c r="V48" s="37"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="47"/>
+      <c r="R48" s="48"/>
+      <c r="S48" s="33"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="34"/>
+      <c r="V48" s="35"/>
       <c r="W48" s="15"/>
       <c r="X48" s="15"/>
       <c r="Y48" s="15"/>
@@ -3389,13 +3388,13 @@
       <c r="C51" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="38" t="s">
+      <c r="D51" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="39"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="31"/>
       <c r="I51" s="5" t="s">
         <v>5</v>
       </c>
@@ -3414,12 +3413,12 @@
         <v>7</v>
       </c>
       <c r="R51" s="10"/>
-      <c r="S51" s="47" t="s">
+      <c r="S51" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="T51" s="38"/>
-      <c r="U51" s="38"/>
-      <c r="V51" s="39"/>
+      <c r="T51" s="30"/>
+      <c r="U51" s="30"/>
+      <c r="V51" s="31"/>
       <c r="W51" s="5" t="s">
         <v>4</v>
       </c>
@@ -3447,33 +3446,33 @@
       <c r="C52" s="25">
         <v>1</v>
       </c>
-      <c r="D52" s="35" t="s">
+      <c r="D52" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="51" t="s">
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J52" s="51"/>
-      <c r="K52" s="51"/>
-      <c r="L52" s="51"/>
-      <c r="M52" s="51"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
       <c r="N52" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="O52" s="40"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="42"/>
-      <c r="R52" s="43"/>
-      <c r="S52" s="35" t="s">
+      <c r="O52" s="37"/>
+      <c r="P52" s="38"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="40"/>
+      <c r="S52" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="T52" s="36"/>
-      <c r="U52" s="36"/>
-      <c r="V52" s="37"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="34"/>
+      <c r="V52" s="35"/>
       <c r="W52" s="17"/>
       <c r="X52" s="17"/>
       <c r="Y52" s="17"/>
@@ -3499,33 +3498,33 @@
       <c r="C53" s="11">
         <v>2</v>
       </c>
-      <c r="D53" s="27" t="s">
+      <c r="D53" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="30" t="s">
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="44"/>
       <c r="N53" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="O53" s="31"/>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="34"/>
-      <c r="S53" s="35" t="s">
+      <c r="O53" s="45"/>
+      <c r="P53" s="46"/>
+      <c r="Q53" s="47"/>
+      <c r="R53" s="48"/>
+      <c r="S53" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="T53" s="36"/>
-      <c r="U53" s="36"/>
-      <c r="V53" s="37"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="34"/>
+      <c r="V53" s="35"/>
       <c r="W53" s="15"/>
       <c r="X53" s="15"/>
       <c r="Y53" s="15"/>
@@ -3551,33 +3550,33 @@
       <c r="C54" s="25">
         <v>3</v>
       </c>
-      <c r="D54" s="27" t="s">
+      <c r="D54" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="30" t="s">
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="44"/>
+      <c r="M54" s="44"/>
       <c r="N54" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="O54" s="31"/>
-      <c r="P54" s="32"/>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="34"/>
-      <c r="S54" s="35" t="s">
+      <c r="O54" s="45"/>
+      <c r="P54" s="46"/>
+      <c r="Q54" s="47"/>
+      <c r="R54" s="48"/>
+      <c r="S54" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="T54" s="36"/>
-      <c r="U54" s="36"/>
-      <c r="V54" s="37"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="34"/>
+      <c r="V54" s="35"/>
       <c r="W54" s="15"/>
       <c r="X54" s="15"/>
       <c r="Y54" s="15"/>
@@ -3603,33 +3602,33 @@
       <c r="C55" s="11">
         <v>4</v>
       </c>
-      <c r="D55" s="27" t="s">
+      <c r="D55" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="30" t="s">
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="44"/>
       <c r="N55" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="O55" s="31"/>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="34"/>
-      <c r="S55" s="35" t="s">
+      <c r="O55" s="45"/>
+      <c r="P55" s="46"/>
+      <c r="Q55" s="47"/>
+      <c r="R55" s="48"/>
+      <c r="S55" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="T55" s="36"/>
-      <c r="U55" s="36"/>
-      <c r="V55" s="37"/>
+      <c r="T55" s="34"/>
+      <c r="U55" s="34"/>
+      <c r="V55" s="35"/>
       <c r="W55" s="15"/>
       <c r="X55" s="15"/>
       <c r="Y55" s="15"/>
@@ -3655,25 +3654,25 @@
       <c r="C56" s="11">
         <v>5</v>
       </c>
-      <c r="D56" s="27"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="44"/>
+      <c r="L56" s="44"/>
+      <c r="M56" s="44"/>
       <c r="N56" s="13"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="32"/>
-      <c r="Q56" s="33"/>
-      <c r="R56" s="34"/>
-      <c r="S56" s="27"/>
-      <c r="T56" s="28"/>
-      <c r="U56" s="28"/>
-      <c r="V56" s="29"/>
+      <c r="O56" s="45"/>
+      <c r="P56" s="46"/>
+      <c r="Q56" s="47"/>
+      <c r="R56" s="48"/>
+      <c r="S56" s="41"/>
+      <c r="T56" s="42"/>
+      <c r="U56" s="42"/>
+      <c r="V56" s="43"/>
       <c r="W56" s="15"/>
       <c r="X56" s="15"/>
       <c r="Y56" s="15"/>
@@ -3697,25 +3696,25 @@
     </row>
     <row r="57" spans="2:42" x14ac:dyDescent="0.4">
       <c r="C57" s="21"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="52"/>
-      <c r="J57" s="52"/>
-      <c r="K57" s="52"/>
-      <c r="L57" s="52"/>
-      <c r="M57" s="52"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
       <c r="N57" s="23"/>
-      <c r="O57" s="53"/>
-      <c r="P57" s="53"/>
-      <c r="Q57" s="54"/>
-      <c r="R57" s="54"/>
-      <c r="S57" s="52"/>
-      <c r="T57" s="52"/>
-      <c r="U57" s="52"/>
-      <c r="V57" s="52"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="28"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="29"/>
+      <c r="S57" s="27"/>
+      <c r="T57" s="27"/>
+      <c r="U57" s="27"/>
+      <c r="V57" s="27"/>
       <c r="W57" s="24"/>
       <c r="X57" s="24"/>
       <c r="Y57" s="24"/>
@@ -3746,13 +3745,13 @@
       <c r="C59" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D59" s="38" t="s">
+      <c r="D59" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="39"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="31"/>
       <c r="I59" s="5" t="s">
         <v>5</v>
       </c>
@@ -3771,12 +3770,12 @@
         <v>7</v>
       </c>
       <c r="R59" s="10"/>
-      <c r="S59" s="47" t="s">
+      <c r="S59" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="T59" s="38"/>
-      <c r="U59" s="38"/>
-      <c r="V59" s="39"/>
+      <c r="T59" s="30"/>
+      <c r="U59" s="30"/>
+      <c r="V59" s="31"/>
       <c r="W59" s="5" t="s">
         <v>4</v>
       </c>
@@ -3804,33 +3803,33 @@
       <c r="C60" s="25">
         <v>1</v>
       </c>
-      <c r="D60" s="35" t="s">
+      <c r="D60" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="51" t="s">
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J60" s="51"/>
-      <c r="K60" s="51"/>
-      <c r="L60" s="51"/>
-      <c r="M60" s="51"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
       <c r="N60" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="O60" s="40"/>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="42"/>
-      <c r="R60" s="43"/>
-      <c r="S60" s="35" t="s">
+      <c r="O60" s="37"/>
+      <c r="P60" s="38"/>
+      <c r="Q60" s="39"/>
+      <c r="R60" s="40"/>
+      <c r="S60" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="T60" s="36"/>
-      <c r="U60" s="36"/>
-      <c r="V60" s="37"/>
+      <c r="T60" s="34"/>
+      <c r="U60" s="34"/>
+      <c r="V60" s="35"/>
       <c r="W60" s="17"/>
       <c r="X60" s="17"/>
       <c r="Y60" s="17"/>
@@ -3856,33 +3855,33 @@
       <c r="C61" s="11">
         <v>2</v>
       </c>
-      <c r="D61" s="27" t="s">
+      <c r="D61" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="30" t="s">
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="30"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="44"/>
+      <c r="L61" s="44"/>
+      <c r="M61" s="44"/>
       <c r="N61" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="O61" s="31"/>
-      <c r="P61" s="32"/>
-      <c r="Q61" s="33"/>
-      <c r="R61" s="34"/>
-      <c r="S61" s="35" t="s">
+      <c r="O61" s="45"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="47"/>
+      <c r="R61" s="48"/>
+      <c r="S61" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="T61" s="36"/>
-      <c r="U61" s="36"/>
-      <c r="V61" s="37"/>
+      <c r="T61" s="34"/>
+      <c r="U61" s="34"/>
+      <c r="V61" s="35"/>
       <c r="W61" s="15"/>
       <c r="X61" s="15"/>
       <c r="Y61" s="15"/>
@@ -3908,33 +3907,33 @@
       <c r="C62" s="25">
         <v>3</v>
       </c>
-      <c r="D62" s="27" t="s">
+      <c r="D62" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="30" t="s">
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="J62" s="30"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="30"/>
-      <c r="M62" s="30"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="44"/>
+      <c r="M62" s="44"/>
       <c r="N62" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="O62" s="31"/>
-      <c r="P62" s="32"/>
-      <c r="Q62" s="33"/>
-      <c r="R62" s="34"/>
-      <c r="S62" s="35" t="s">
+      <c r="O62" s="45"/>
+      <c r="P62" s="46"/>
+      <c r="Q62" s="47"/>
+      <c r="R62" s="48"/>
+      <c r="S62" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="T62" s="36"/>
-      <c r="U62" s="36"/>
-      <c r="V62" s="37"/>
+      <c r="T62" s="34"/>
+      <c r="U62" s="34"/>
+      <c r="V62" s="35"/>
       <c r="W62" s="15"/>
       <c r="X62" s="15"/>
       <c r="Y62" s="15"/>
@@ -3960,33 +3959,33 @@
       <c r="C63" s="11">
         <v>4</v>
       </c>
-      <c r="D63" s="27" t="s">
+      <c r="D63" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="30" t="s">
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="44"/>
+      <c r="L63" s="44"/>
+      <c r="M63" s="44"/>
       <c r="N63" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="O63" s="31"/>
-      <c r="P63" s="32"/>
-      <c r="Q63" s="33"/>
-      <c r="R63" s="34"/>
-      <c r="S63" s="35" t="s">
+      <c r="O63" s="45"/>
+      <c r="P63" s="46"/>
+      <c r="Q63" s="47"/>
+      <c r="R63" s="48"/>
+      <c r="S63" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="T63" s="36"/>
-      <c r="U63" s="36"/>
-      <c r="V63" s="37"/>
+      <c r="T63" s="34"/>
+      <c r="U63" s="34"/>
+      <c r="V63" s="35"/>
       <c r="W63" s="15"/>
       <c r="X63" s="15"/>
       <c r="Y63" s="15"/>
@@ -4012,25 +4011,25 @@
       <c r="C64" s="11">
         <v>5</v>
       </c>
-      <c r="D64" s="27"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="30"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="44"/>
+      <c r="J64" s="44"/>
+      <c r="K64" s="44"/>
+      <c r="L64" s="44"/>
+      <c r="M64" s="44"/>
       <c r="N64" s="13"/>
-      <c r="O64" s="31"/>
-      <c r="P64" s="32"/>
-      <c r="Q64" s="33"/>
-      <c r="R64" s="34"/>
-      <c r="S64" s="27"/>
-      <c r="T64" s="28"/>
-      <c r="U64" s="28"/>
-      <c r="V64" s="29"/>
+      <c r="O64" s="45"/>
+      <c r="P64" s="46"/>
+      <c r="Q64" s="47"/>
+      <c r="R64" s="48"/>
+      <c r="S64" s="41"/>
+      <c r="T64" s="42"/>
+      <c r="U64" s="42"/>
+      <c r="V64" s="43"/>
       <c r="W64" s="15"/>
       <c r="X64" s="15"/>
       <c r="Y64" s="15"/>
@@ -4054,38 +4053,92 @@
     </row>
   </sheetData>
   <mergeCells count="135">
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="I57:M57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="S57:V57"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="S59:V59"/>
-    <mergeCell ref="D60:H60"/>
-    <mergeCell ref="I60:M60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="S60:V60"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="I55:M55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="S55:V55"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="I56:M56"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="S56:V56"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="I53:M53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="S53:V53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="I54:M54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="S54:V54"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="I63:M63"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="S63:V63"/>
+    <mergeCell ref="D64:H64"/>
+    <mergeCell ref="I64:M64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="S64:V64"/>
+    <mergeCell ref="D61:H61"/>
+    <mergeCell ref="I61:M61"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="S61:V61"/>
+    <mergeCell ref="D62:H62"/>
+    <mergeCell ref="I62:M62"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="S62:V62"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="Q33:T33"/>
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:V41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="I40:M40"/>
+    <mergeCell ref="I41:M41"/>
+    <mergeCell ref="I42:M42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:V42"/>
+    <mergeCell ref="S45:V45"/>
+    <mergeCell ref="I46:M46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:V46"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:T43"/>
     <mergeCell ref="D51:H51"/>
     <mergeCell ref="S51:V51"/>
     <mergeCell ref="D52:H52"/>
@@ -4103,96 +4156,42 @@
     <mergeCell ref="O48:P48"/>
     <mergeCell ref="Q48:R48"/>
     <mergeCell ref="S48:V48"/>
-    <mergeCell ref="S45:V45"/>
-    <mergeCell ref="I46:M46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:V46"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:T43"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:V41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:V40"/>
-    <mergeCell ref="I40:M40"/>
-    <mergeCell ref="I41:M41"/>
-    <mergeCell ref="I42:M42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:V42"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="Q33:T33"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="Q31:T31"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D61:H61"/>
-    <mergeCell ref="I61:M61"/>
-    <mergeCell ref="O61:P61"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="S61:V61"/>
-    <mergeCell ref="D62:H62"/>
-    <mergeCell ref="I62:M62"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="S62:V62"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="I63:M63"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="S63:V63"/>
-    <mergeCell ref="D64:H64"/>
-    <mergeCell ref="I64:M64"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="S64:V64"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="I53:M53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="S53:V53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="I54:M54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="S54:V54"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="I55:M55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="S55:V55"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="I56:M56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="S56:V56"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="I57:M57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="S57:V57"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="S59:V59"/>
+    <mergeCell ref="D60:H60"/>
+    <mergeCell ref="I60:M60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S60:V60"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
   <headerFooter differentFirst="1"/>
   <drawing r:id="rId2"/>
 </worksheet>
